--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63e31116eed35c13/Documents/ms excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63E31116EED35C13/Documents/ms excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="14_{B403420E-9078-4047-BBC5-319B53ED437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4D50D9-712A-4236-B2C1-B62E65F11BC6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{397EE83B-02AA-4E3A-A6CA-0D184936B3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="642" xr2:uid="{F8AA01B9-AE19-4901-9C8D-0E4987409578}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="642" xr2:uid="{F8AA01B9-AE19-4901-9C8D-0E4987409578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve"> S NO</t>
   </si>
@@ -85,44 +85,68 @@
     <t>SALES REPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">tannu </t>
-  </si>
-  <si>
-    <t>swati</t>
-  </si>
-  <si>
-    <t>akhil</t>
-  </si>
-  <si>
-    <t>shshwat</t>
-  </si>
-  <si>
-    <t>sajal</t>
-  </si>
-  <si>
-    <t>kunj</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>Party name</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>SCIENCE</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>STUDENT MARKS PERCENTAGE</t>
+  </si>
+  <si>
+    <t>RITIKA TIWAR</t>
+  </si>
+  <si>
+    <t>ABHISHEK KUMAR</t>
+  </si>
+  <si>
+    <t>SORAVB SING</t>
+  </si>
+  <si>
+    <t>SRIJAN PAL</t>
+  </si>
+  <si>
+    <t>AMAN DUBEY</t>
+  </si>
+  <si>
+    <t>PRIYA SING</t>
+  </si>
+  <si>
+    <t>RIYA MISHRA</t>
+  </si>
+  <si>
+    <t>SUBHI TRIPATHI</t>
+  </si>
+  <si>
+    <t>PAYAL RAWAT</t>
+  </si>
+  <si>
+    <t>ARYAN RAWAT</t>
+  </si>
+  <si>
+    <t>MARKS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +208,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -212,12 +250,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -393,79 +431,41 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,28 +506,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,156 +515,52 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -698,17 +572,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8E31D96-FE83-47B0-AB7A-3B71BF7FDF84}" name="Table1" displayName="Table1" ref="D2:G9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="D2:G9" xr:uid="{F8E31D96-FE83-47B0-AB7A-3B71BF7FDF84}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6BFC8134-9E28-4BF6-BB57-37DA9F38EDB3}" name="Party name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{98CED63D-9938-498E-94A9-A24771EE841E}" name="sales" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8D9F277B-E0D0-4408-B4FC-0CCC7BD95896}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{54AC3007-D961-45C0-B4EA-89D03EF2E994}" name="Column2" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,115 +873,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40AE6F-C022-444B-9747-0945356279FC}">
-  <dimension ref="D2:G9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I15:J17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19">
+        <v>75</v>
+      </c>
+      <c r="D3" s="19">
+        <v>65</v>
+      </c>
+      <c r="E3" s="19">
+        <v>33</v>
+      </c>
+      <c r="F3" s="19">
+        <v>22</v>
+      </c>
+      <c r="G3" s="19">
+        <v>195</v>
+      </c>
+      <c r="H3" s="30">
+        <f>G3/400*100%</f>
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="C4" s="21">
+        <v>76</v>
+      </c>
+      <c r="D4" s="21">
+        <v>66</v>
+      </c>
+      <c r="E4" s="21">
+        <v>34</v>
+      </c>
+      <c r="F4" s="21">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19">
+        <f>SUM(C4:F4)</f>
+        <v>199</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" ref="H4:H12" si="0">G4/400*100%</f>
+        <v>0.4975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="17">
-        <v>323</v>
-      </c>
-      <c r="F3" s="23">
-        <v>656</v>
-      </c>
-      <c r="G3" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17">
-        <v>2323</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="C5" s="21">
+        <v>77</v>
+      </c>
+      <c r="D5" s="21">
+        <v>67</v>
+      </c>
+      <c r="E5" s="21">
+        <v>35</v>
+      </c>
+      <c r="F5" s="21">
+        <v>24</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" ref="G5:G12" si="1">SUM(C5:F5)</f>
+        <v>203</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="0"/>
+        <v>0.50749999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="21">
+        <v>78</v>
+      </c>
+      <c r="D6" s="21">
+        <v>68</v>
+      </c>
+      <c r="E6" s="21">
+        <v>36</v>
+      </c>
+      <c r="F6" s="21">
+        <v>25</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="0"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(C3:G3)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="21">
+        <v>79</v>
+      </c>
+      <c r="D7" s="21">
+        <v>69</v>
+      </c>
+      <c r="E7" s="21">
+        <v>37</v>
+      </c>
+      <c r="F7" s="21">
+        <v>26</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="21">
+        <v>80</v>
+      </c>
+      <c r="D8" s="21">
+        <v>70</v>
+      </c>
+      <c r="E8" s="21">
+        <v>38</v>
+      </c>
+      <c r="F8" s="21">
+        <v>27</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.53749999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="21">
+        <v>81</v>
+      </c>
+      <c r="D9" s="21">
+        <v>71</v>
+      </c>
+      <c r="E9" s="21">
+        <v>39</v>
+      </c>
+      <c r="F9" s="21">
+        <v>28</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="0"/>
+        <v>0.54749999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="21">
+        <v>82</v>
+      </c>
+      <c r="D10" s="21">
+        <v>72</v>
+      </c>
+      <c r="E10" s="21">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21">
+        <v>29</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="17">
-        <v>323</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="17">
-        <v>232</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="21">
-        <v>232</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="21">
-        <v>656</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="H10" s="30">
+        <f t="shared" si="0"/>
+        <v>0.5575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="21">
+        <v>83</v>
+      </c>
+      <c r="D11" s="21">
+        <v>73</v>
+      </c>
+      <c r="E11" s="21">
+        <v>41</v>
+      </c>
+      <c r="F11" s="21">
+        <v>30</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="0"/>
+        <v>0.5675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="21">
+        <v>84</v>
+      </c>
+      <c r="D12" s="21">
+        <v>74</v>
+      </c>
+      <c r="E12" s="21">
+        <v>42</v>
+      </c>
+      <c r="F12" s="21">
+        <v>31</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="0"/>
+        <v>0.57750000000000001</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H11:H20">
     <sortCondition ref="H11:H20"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1161,11 +1265,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
